--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/App-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/App-Fpr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H2">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I2">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J2">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>35.86137133333333</v>
+        <v>0.05237733333333333</v>
       </c>
       <c r="N2">
-        <v>107.584114</v>
+        <v>0.157132</v>
       </c>
       <c r="O2">
-        <v>0.6778966622414776</v>
+        <v>0.01249705432598326</v>
       </c>
       <c r="P2">
-        <v>0.6778966622414775</v>
+        <v>0.01249705432598326</v>
       </c>
       <c r="Q2">
-        <v>3975.606962726473</v>
+        <v>6.03498806869511</v>
       </c>
       <c r="R2">
-        <v>35780.46266453825</v>
+        <v>54.314892618256</v>
       </c>
       <c r="S2">
-        <v>0.1701375587990754</v>
+        <v>0.003483439850929985</v>
       </c>
       <c r="T2">
-        <v>0.1701375587990754</v>
+        <v>0.003483439850929983</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H3">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I3">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J3">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.693616</v>
       </c>
       <c r="O3">
-        <v>0.01067161861386675</v>
+        <v>0.1346970137168397</v>
       </c>
       <c r="P3">
-        <v>0.01067161861386675</v>
+        <v>0.1346970137168397</v>
       </c>
       <c r="Q3">
-        <v>62.58499802103644</v>
+        <v>65.04691821494755</v>
       </c>
       <c r="R3">
-        <v>563.264982189328</v>
+        <v>585.422263934528</v>
       </c>
       <c r="S3">
-        <v>0.002678347955563913</v>
+        <v>0.03754556338984189</v>
       </c>
       <c r="T3">
-        <v>0.002678347955563913</v>
+        <v>0.03754556338984189</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H4">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I4">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J4">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,22 +685,22 @@
         <v>0.261745</v>
       </c>
       <c r="O4">
-        <v>0.001649277530494842</v>
+        <v>0.020817156814363</v>
       </c>
       <c r="P4">
-        <v>0.001649277530494842</v>
+        <v>0.020817156814363</v>
       </c>
       <c r="Q4">
-        <v>9.672387546537221</v>
+        <v>10.05287243871778</v>
       </c>
       <c r="R4">
-        <v>87.05148791883499</v>
+        <v>90.47585194846</v>
       </c>
       <c r="S4">
-        <v>0.0004139333742885497</v>
+        <v>0.005802592494092029</v>
       </c>
       <c r="T4">
-        <v>0.0004139333742885497</v>
+        <v>0.005802592494092027</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H5">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I5">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J5">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.38778266666667</v>
+        <v>3.48701</v>
       </c>
       <c r="N5">
-        <v>49.163348</v>
+        <v>10.46103</v>
       </c>
       <c r="O5">
-        <v>0.3097824416141609</v>
+        <v>0.831988775142814</v>
       </c>
       <c r="P5">
-        <v>0.3097824416141609</v>
+        <v>0.831988775142814</v>
       </c>
       <c r="Q5">
-        <v>1816.756594935054</v>
+        <v>401.7780670790266</v>
       </c>
       <c r="R5">
-        <v>16350.80935441548</v>
+        <v>3616.00260371124</v>
       </c>
       <c r="S5">
-        <v>0.07774876513003962</v>
+        <v>0.2319092787196376</v>
       </c>
       <c r="T5">
-        <v>0.07774876513003962</v>
+        <v>0.2319092787196376</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>554.525406</v>
       </c>
       <c r="I6">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J6">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>35.86137133333333</v>
+        <v>0.05237733333333333</v>
       </c>
       <c r="N6">
-        <v>107.584114</v>
+        <v>0.157132</v>
       </c>
       <c r="O6">
-        <v>0.6778966622414776</v>
+        <v>0.01249705432598326</v>
       </c>
       <c r="P6">
-        <v>0.6778966622414775</v>
+        <v>0.01249705432598326</v>
       </c>
       <c r="Q6">
-        <v>6628.680499444476</v>
+        <v>9.681520677287999</v>
       </c>
       <c r="R6">
-        <v>59658.12449500027</v>
+        <v>87.133686095592</v>
       </c>
       <c r="S6">
-        <v>0.2836768143350574</v>
+        <v>0.005588245504544918</v>
       </c>
       <c r="T6">
-        <v>0.2836768143350573</v>
+        <v>0.005588245504544917</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>554.525406</v>
       </c>
       <c r="I7">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J7">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.693616</v>
       </c>
       <c r="O7">
-        <v>0.01067161861386675</v>
+        <v>0.1346970137168397</v>
       </c>
       <c r="P7">
-        <v>0.01067161861386675</v>
+        <v>0.1346970137168397</v>
       </c>
       <c r="Q7">
         <v>104.350344445344</v>
@@ -883,10 +883,10 @@
         <v>939.153100008096</v>
       </c>
       <c r="S7">
-        <v>0.004465711281378239</v>
+        <v>0.06023179236836129</v>
       </c>
       <c r="T7">
-        <v>0.004465711281378239</v>
+        <v>0.06023179236836128</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>554.525406</v>
       </c>
       <c r="I8">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J8">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,10 +933,10 @@
         <v>0.261745</v>
       </c>
       <c r="O8">
-        <v>0.001649277530494842</v>
+        <v>0.020817156814363</v>
       </c>
       <c r="P8">
-        <v>0.001649277530494842</v>
+        <v>0.020817156814363</v>
       </c>
       <c r="Q8">
         <v>16.12713915483</v>
@@ -945,10 +945,10 @@
         <v>145.14425239347</v>
       </c>
       <c r="S8">
-        <v>0.0006901668379044289</v>
+        <v>0.009308704271485817</v>
       </c>
       <c r="T8">
-        <v>0.0006901668379044289</v>
+        <v>0.009308704271485816</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>554.525406</v>
       </c>
       <c r="I9">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J9">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.38778266666667</v>
+        <v>3.48701</v>
       </c>
       <c r="N9">
-        <v>49.163348</v>
+        <v>10.46103</v>
       </c>
       <c r="O9">
-        <v>0.3097824416141609</v>
+        <v>0.831988775142814</v>
       </c>
       <c r="P9">
-        <v>0.3097824416141609</v>
+        <v>0.831988775142814</v>
       </c>
       <c r="Q9">
-        <v>3029.147278891032</v>
+        <v>644.5452119920201</v>
       </c>
       <c r="R9">
-        <v>27262.32551001929</v>
+        <v>5800.90690792818</v>
       </c>
       <c r="S9">
-        <v>0.1296334693306654</v>
+        <v>0.372036274408838</v>
       </c>
       <c r="T9">
-        <v>0.1296334693306654</v>
+        <v>0.3720362744088379</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H10">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I10">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J10">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>35.86137133333333</v>
+        <v>0.05237733333333333</v>
       </c>
       <c r="N10">
-        <v>107.584114</v>
+        <v>0.157132</v>
       </c>
       <c r="O10">
-        <v>0.6778966622414776</v>
+        <v>0.01249705432598326</v>
       </c>
       <c r="P10">
-        <v>0.6778966622414775</v>
+        <v>0.01249705432598326</v>
       </c>
       <c r="Q10">
-        <v>1820.99291998965</v>
+        <v>3.171497640982222</v>
       </c>
       <c r="R10">
-        <v>16388.93627990685</v>
+        <v>28.54347876884</v>
       </c>
       <c r="S10">
-        <v>0.07793006021524947</v>
+        <v>0.001830611948851235</v>
       </c>
       <c r="T10">
-        <v>0.07793006021524947</v>
+        <v>0.001830611948851235</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H11">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I11">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J11">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.693616</v>
       </c>
       <c r="O11">
-        <v>0.01067161861386675</v>
+        <v>0.1346970137168397</v>
       </c>
       <c r="P11">
-        <v>0.01067161861386675</v>
+        <v>0.1346970137168397</v>
       </c>
       <c r="Q11">
-        <v>28.6665254796</v>
+        <v>34.18335634199111</v>
       </c>
       <c r="R11">
-        <v>257.9987293164</v>
+        <v>307.65020707792</v>
       </c>
       <c r="S11">
-        <v>0.001226794476938389</v>
+        <v>0.01973088668358854</v>
       </c>
       <c r="T11">
-        <v>0.001226794476938389</v>
+        <v>0.01973088668358853</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H12">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I12">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J12">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,22 +1181,22 @@
         <v>0.261745</v>
       </c>
       <c r="O12">
-        <v>0.001649277530494842</v>
+        <v>0.020817156814363</v>
       </c>
       <c r="P12">
-        <v>0.001649277530494842</v>
+        <v>0.020817156814363</v>
       </c>
       <c r="Q12">
-        <v>4.430354762625</v>
+        <v>5.282970050905556</v>
       </c>
       <c r="R12">
-        <v>39.873192863625</v>
+        <v>47.54673045815</v>
       </c>
       <c r="S12">
-        <v>0.0001895986577631756</v>
+        <v>0.003049369476313332</v>
       </c>
       <c r="T12">
-        <v>0.0001895986577631757</v>
+        <v>0.003049369476313332</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H13">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I13">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J13">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.38778266666667</v>
+        <v>3.48701</v>
       </c>
       <c r="N13">
-        <v>49.163348</v>
+        <v>10.46103</v>
       </c>
       <c r="O13">
-        <v>0.3097824416141609</v>
+        <v>0.831988775142814</v>
       </c>
       <c r="P13">
-        <v>0.3097824416141609</v>
+        <v>0.831988775142814</v>
       </c>
       <c r="Q13">
-        <v>832.1498900013</v>
+        <v>211.1417914062334</v>
       </c>
       <c r="R13">
-        <v>7489.349010011701</v>
+        <v>1900.2761226561</v>
       </c>
       <c r="S13">
-        <v>0.03561215989586775</v>
+        <v>0.1218726072047148</v>
       </c>
       <c r="T13">
-        <v>0.03561215989586776</v>
+        <v>0.1218726072047147</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H14">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I14">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J14">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1299,28 +1299,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>35.86137133333333</v>
+        <v>0.05237733333333333</v>
       </c>
       <c r="N14">
-        <v>107.584114</v>
+        <v>0.157132</v>
       </c>
       <c r="O14">
-        <v>0.6778966622414776</v>
+        <v>0.01249705432598326</v>
       </c>
       <c r="P14">
-        <v>0.6778966622414775</v>
+        <v>0.01249705432598326</v>
       </c>
       <c r="Q14">
-        <v>3415.141388548976</v>
+        <v>2.762883818877778</v>
       </c>
       <c r="R14">
-        <v>30736.27249694078</v>
+        <v>24.8659543699</v>
       </c>
       <c r="S14">
-        <v>0.1461522288920953</v>
+        <v>0.00159475702165712</v>
       </c>
       <c r="T14">
-        <v>0.1461522288920953</v>
+        <v>0.00159475702165712</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H15">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I15">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J15">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.693616</v>
       </c>
       <c r="O15">
-        <v>0.01067161861386675</v>
+        <v>0.1346970137168397</v>
       </c>
       <c r="P15">
-        <v>0.01067161861386675</v>
+        <v>0.1346970137168397</v>
       </c>
       <c r="Q15">
-        <v>53.76200893292445</v>
+        <v>29.77919355568889</v>
       </c>
       <c r="R15">
-        <v>483.8580803963201</v>
+        <v>268.0127420012</v>
       </c>
       <c r="S15">
-        <v>0.00230076489998621</v>
+        <v>0.01718877127504802</v>
       </c>
       <c r="T15">
-        <v>0.00230076489998621</v>
+        <v>0.01718877127504802</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H16">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I16">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J16">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,22 +1429,22 @@
         <v>0.261745</v>
       </c>
       <c r="O16">
-        <v>0.001649277530494842</v>
+        <v>0.020817156814363</v>
       </c>
       <c r="P16">
-        <v>0.001649277530494842</v>
+        <v>0.020817156814363</v>
       </c>
       <c r="Q16">
-        <v>8.308812049572223</v>
+        <v>4.602315411069444</v>
       </c>
       <c r="R16">
-        <v>74.77930844615001</v>
+        <v>41.420838699625</v>
       </c>
       <c r="S16">
-        <v>0.0003555786605386879</v>
+        <v>0.002656490572471826</v>
       </c>
       <c r="T16">
-        <v>0.0003555786605386879</v>
+        <v>0.002656490572471826</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H17">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I17">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J17">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.38778266666667</v>
+        <v>3.48701</v>
       </c>
       <c r="N17">
-        <v>49.163348</v>
+        <v>10.46103</v>
       </c>
       <c r="O17">
-        <v>0.3097824416141609</v>
+        <v>0.831988775142814</v>
       </c>
       <c r="P17">
-        <v>0.3097824416141609</v>
+        <v>0.831988775142814</v>
       </c>
       <c r="Q17">
-        <v>1560.637331218218</v>
+        <v>183.9384117544167</v>
       </c>
       <c r="R17">
-        <v>14045.73598096396</v>
+        <v>1655.44570578975</v>
       </c>
       <c r="S17">
-        <v>0.06678804725758804</v>
+        <v>0.1061706148096237</v>
       </c>
       <c r="T17">
-        <v>0.06678804725758804</v>
+        <v>0.1061706148096237</v>
       </c>
     </row>
   </sheetData>
